--- a/logs/rooseBERT_large_scr_seed42.xlsx
+++ b/logs/rooseBERT_large_scr_seed42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC138935-327E-574E-9503-85E53D5196F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A89FB7-7ABA-EA47-A193-FE9306CBB471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="4" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="sentiment analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'argument detection'!$C$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">ner!$C$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'relation classification'!$C$1:$C$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'sentiment analysis'!$C$1:$C$55</definedName>
   </definedNames>
@@ -258,7 +258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +275,13 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri (Corpo)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,6 +337,8 @@
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -632,12 +641,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -693,2066 +701,2060 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G2" s="7">
+        <v>256</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.47909069305065499</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.43542084425442729</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.63260347248412607</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.5757281427664892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G3" s="7">
+        <v>256</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.47891165022152082</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.43488940853951619</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.63170851695004726</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.57609157240474074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G4" s="7">
+        <v>256</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.47873392330508829</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.43560280518253303</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.63601388908875767</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.56971262804822775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.4779937590693093</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.43565794634525301</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.63023884515858231</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.57108538275250265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4</v>
+      </c>
+      <c r="E6" s="7">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>256</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.47633839876558343</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.43321783364257388</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.62779750914265564</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.5728294019997684</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="7">
+        <v>8</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>256</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.4762020863066227</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.43320418970764363</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.63061462724748218</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.57297739000630554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E8" s="7">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F8" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G2" s="1">
-        <v>256</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.34596802183279241</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.25004317046743713</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.561853517296101</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.56027667485659227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G8" s="7">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.47581548782477923</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.43307081000039271</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.62529071440026507</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.5748021808669076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>256</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.47572385806992362</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.43255204449001461</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.62797904244039215</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.57410285299869201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G10" s="7">
+        <v>256</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.47561853322267772</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.43304159933104208</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.63455468340552512</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.5721345017951589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>32</v>
+      </c>
+      <c r="F11" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>256</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.47553863841797861</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.43255439512430538</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.62773043629534608</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.57341491976476344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>256</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.47539892115834043</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.43288530688153959</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.62914270476850076</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.57337114884028129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7">
+        <v>32</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>256</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.47535430015326918</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.43310673668996769</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.62975759525668573</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.57302796016421254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>32</v>
+      </c>
+      <c r="F14" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.47519122762078342</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.4328427644659375</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.62770152739299334</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.57461812660052247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>4</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.47497354394732227</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.43245957496827042</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.63009674499621593</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.57296452148399801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.47464104093876391</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.43236895830022842</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.63170888254702695</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.57055810781247984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>16</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>256</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.4746010134749673</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.4319571902966155</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.63030867482224662</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.57212806753400502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <v>16</v>
+      </c>
+      <c r="F18" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>256</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.47406086309403328</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.43179704171976391</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.63006180658823108</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.57107243223642468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3</v>
+      </c>
+      <c r="E19" s="7">
+        <v>16</v>
+      </c>
+      <c r="F19" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>256</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.47295666779943218</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.43117442068740969</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.63331882371822457</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.56560083919344184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4</v>
+      </c>
+      <c r="E20" s="7">
+        <v>32</v>
+      </c>
+      <c r="F20" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.4728933925460499</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.43043637491629322</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.62390848137753596</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.57402617457437366</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>256</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.47261473503876422</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.43076633000480569</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.63215587890514446</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.56864069798864991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>3</v>
+      </c>
+      <c r="E22" s="7">
+        <v>16</v>
+      </c>
+      <c r="F22" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G22" s="7">
+        <v>256</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.47255169168050309</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.43103211367221012</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.62929589406443365</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.56925195279826013</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E23" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F23" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="1">
-        <v>256</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.33663619179929238</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.2414169214289624</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.55716293276101891</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.57658525666291971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="G23" s="7">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.47221859858232668</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.43000305185652732</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.62603285140364873</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.57093129495939976</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
+        <v>3</v>
+      </c>
+      <c r="E24" s="7">
+        <v>32</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>256</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.47209853979018229</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.43081832910607248</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.62207919735196004</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.57412268849168047</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
+      <c r="E25" s="7">
+        <v>8</v>
+      </c>
+      <c r="F25" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>256</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.47180909294496259</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.43005169271894472</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.62537177428127222</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.56830102179571851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.47112026271094021</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.42962882032847649</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.62545720191325238</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.57171348278228884</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>256</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.47059407609835519</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.42937134660822113</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.62911189595989359</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.56797796908980946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>3</v>
+      </c>
+      <c r="E28" s="7">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>256</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.47057234531902542</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.42931916597010572</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.62308615562164538</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.57166480073093207</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E29" s="7">
+        <v>16</v>
+      </c>
+      <c r="F29" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>256</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.46859318776121589</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.42729127283148549</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.62162838425248079</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.56793193208749371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>16</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.46824806053168438</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.42690972795422583</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.62167977466323043</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.56710309905849743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F31" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>256</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.46767786269106693</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.42815906181297642</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.61700939321961812</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.56620951344911097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>32</v>
+      </c>
+      <c r="F32" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G4" s="1">
-        <v>256</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.33530021285273859</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.2412184211574688</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.55138835446849799</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.56315744333059214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="G32" s="7">
+        <v>256</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.46747091738298741</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.42659438409798411</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.61761985327662572</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.56836577437610891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>256</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.46741820691882752</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.42835010638127369</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.61904429806846395</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.56809378579057768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>256</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.46695846850848372</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.427685910426095</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.61930677403807555</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.56806804874596251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>16</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.46672183391332639</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.42769919784384308</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.61450674602990074</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.56672328816481998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="7">
         <v>4</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E36" s="7">
+        <v>32</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>256</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.46637470519770841</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.4264920083202276</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.6234975840977226</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.566623929963609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="7">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7">
+        <v>32</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G37" s="7">
+        <v>256</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.46610267020888058</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.42760835902908179</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.62371807947718849</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.56200054047793691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7">
+        <v>4</v>
+      </c>
+      <c r="E38" s="7">
+        <v>32</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>256</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.46550595170779158</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.42531653436897132</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.61730872951686477</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.5678106782998108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3</v>
+      </c>
+      <c r="E39" s="7">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>256</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.46526531951592343</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.42538732019773812</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.62219177515691837</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.56535477938795864</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7">
         <v>16</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F40" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>256</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.46472260075517152</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.42453793766578268</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.61821556838503677</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.56611238457852542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>16</v>
+      </c>
+      <c r="F41" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G5" s="1">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.32898755589876011</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.23528859236900199</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.54780536449196737</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.57261451171029132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="G41" s="7">
+        <v>256</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.46406759875217968</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.42616551838197803</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.61209426072737994</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.563256795783312</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
         <v>16</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F42" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.32743236225644368</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.2332194355319305</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.55065538528457192</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.57613757463394699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="G42" s="7">
+        <v>256</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.46374560947874621</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.42570544357751899</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.61386144540114462</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.56387291047369026</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>256</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.46365574544056559</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.42585728165381848</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.6187612209200104</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.56420749205368748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7">
         <v>32</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F44" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G7" s="1">
-        <v>256</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.32119566466953048</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.2280031964523071</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.54447884651233935</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.56474161373485832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="G44" s="7">
+        <v>256</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.4636540001961838</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.4262140972381232</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.61898689266440943</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.56442625693291637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
+      <c r="E45" s="7">
+        <v>16</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G45" s="7">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.46363667836822109</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.42564900956302781</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.6190964248938009</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.56331956401446426</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7">
+        <v>2</v>
+      </c>
+      <c r="E46" s="7">
         <v>32</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F46" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.46359869739061532</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.42597232488726372</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.61384773147295635</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.56445471852053308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>8</v>
+      </c>
+      <c r="F47" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G8" s="1">
-        <v>256</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.31823848723501968</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.22631050535227931</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.53652537653733823</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.57647820226468716</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1">
+      <c r="G47" s="7">
+        <v>256</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.46233876389348599</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.42431367395804592</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.60935397289903814</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.56221427923902767</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>8</v>
+      </c>
+      <c r="F48" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>256</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.46083034748131391</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.42239120392579232</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.60532023548303115</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.56589970273713475</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="7">
+        <v>2</v>
+      </c>
+      <c r="E49" s="7">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G49" s="7">
+        <v>256</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.45965670498402689</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.42205814681322018</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.61267870049986517</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.56140487198414857</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="7">
+        <v>3</v>
+      </c>
+      <c r="E50" s="7">
+        <v>32</v>
+      </c>
+      <c r="F50" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>256</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.45758887587293567</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.42005668711700289</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.61005187355849788</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.561696258595905</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F51" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G9" s="1">
-        <v>256</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.31770019284296969</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.22470207750929361</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.54273283534647176</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.56304140537104397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="G51" s="7">
+        <v>256</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.45657276373225869</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.41981297685921648</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.60673867820030747</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.55731250890347983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="7">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7">
+        <v>32</v>
+      </c>
+      <c r="F52" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>256</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.45529331262454231</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.42008337952478308</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.60658045255632964</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.55660670577722526</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7">
         <v>16</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F53" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G10" s="1">
-        <v>256</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.31710943887207682</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.2243331148795665</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.54147243306932302</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.57701834036486088</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G11" s="1">
-        <v>256</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.31547376137369593</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.2237339490930158</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.53532860679989869</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.57223008909845596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="G53" s="7">
+        <v>256</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.45514402016525612</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.41945508952592192</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.6096012726511949</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.55811544090031984</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
         <v>32</v>
       </c>
-      <c r="F12" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.31545687743778589</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.2236711539971287</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.53594700753791669</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.56031703588600024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="F54" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G13" s="1">
-        <v>256</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.31500959945198093</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.22267157533067131</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.53936628562824729</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.55990333533456771</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>256</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.3137855723581745</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.22294444328889071</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.53039066196960927</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.55710328891938388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>256</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.31297609379684532</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.22237426325672049</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.52963588445047782</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.57100869573680191</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>16</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.30842522279522772</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.21827066556710639</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.52690775133956946</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.56172967191528222</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="G54" s="7">
+        <v>256</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="7">
+        <v>0.45502444009766718</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.42074502602157537</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.61354545285054685</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.55245853118686383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2</v>
+      </c>
+      <c r="E55" s="7">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.30747937216553461</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.2156723699384204</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.53585603989312114</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.57350987576823698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G18" s="1">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.30615995278286368</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.2154148132282474</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.52949218843357604</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.55557966005922976</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>32</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="F55" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G19" s="1">
-        <v>256</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.30539881043159978</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.2145683894956151</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.53005965326539495</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.57756821068305575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>32</v>
-      </c>
-      <c r="F20" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G20" s="1">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.30423196465722652</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.21344354917429931</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.52979227710088961</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.55597318009595831</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.30318508865737043</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.21390041773952501</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.52131137403266581</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.57030310993026867</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>32</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.30198764202157302</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.21337873579974451</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.51787208007303698</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.57449769589738353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>32</v>
-      </c>
-      <c r="F23" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G23" s="1">
-        <v>256</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.3018901148276828</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.21226870585773741</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.52297552925543356</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.56983596346525356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1">
-        <v>32</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>256</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.30173757964321829</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.211420962380373</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.52706593645588862</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.57223495520746659</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>32</v>
-      </c>
-      <c r="F25" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.29661597040042048</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.20671165960049331</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.52549454134382367</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.55315295316607049</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>256</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.29660872514439912</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.209094400054119</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.51085890783857291</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.55495910923208092</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="1">
-        <v>3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>16</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>256</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.29551124737000301</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.20647517088310699</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.52001094001692083</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.57442957037123543</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>256</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.2951401307857453</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.20635408871754549</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.51804848859274699</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.55584705187905814</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>16</v>
-      </c>
-      <c r="F29" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>256</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.29352178447029997</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.2051805670434034</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.51596235702096949</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.5556149759599619</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>32</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>256</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.29344003613924913</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.20462148764235349</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.51946169858849278</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.56159345344103007</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8</v>
-      </c>
-      <c r="F31" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>256</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.28923683692185692</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.20490212053078591</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.49322418012609398</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.55868745932365005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="1">
-        <v>2</v>
-      </c>
-      <c r="E32" s="1">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>256</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.28555772229303461</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.200547473078697</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.49566671366910597</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.56713040685537441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3</v>
-      </c>
-      <c r="E33" s="1">
-        <v>16</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>256</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.28422116146513982</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.19796251322215011</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.50390757567791056</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.56722286292657531</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>256</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.28410580129840562</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.19868070207331731</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.49840395848170971</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.55319835932415451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1">
-        <v>2</v>
-      </c>
-      <c r="E35" s="1">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>256</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.28204604310024362</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.1962130951781817</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.50136854772022232</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.55158896327650841</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>16</v>
-      </c>
-      <c r="F36" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>256</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.27824006350436209</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.19506856424136049</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.48528519925051028</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.55359692448955911</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
-        <v>8</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>256</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.27809949127010208</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.19424273770964409</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.48937560645096528</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.56737371230590306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="1">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
-        <v>32</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>256</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.27751658884575919</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.19305734271322469</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.4938061340573302</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.57003060782567649</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1">
-        <v>3</v>
-      </c>
-      <c r="E39" s="1">
-        <v>8</v>
-      </c>
-      <c r="F39" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>256</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.27698541986626252</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.19377704852565189</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.48615096028373539</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.55371296244910728</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>16</v>
-      </c>
-      <c r="F40" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>256</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.2741139316815745</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.18998444330165429</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.49198917111596541</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.56584088796757226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3</v>
-      </c>
-      <c r="E41" s="1">
-        <v>32</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>256</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.27245015730231081</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.18758019728320119</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.49771102103637987</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.55349097678736292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>32</v>
-      </c>
-      <c r="F42" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>256</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.27110218972022548</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.1885231530749126</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.48279531473311382</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.55441928046374822</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>16</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>256</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.26994590130859719</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.1859138012937778</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.49277486867199788</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.55191689664044885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>16</v>
-      </c>
-      <c r="F44" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>256</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.26643960231194108</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.18377141771392719</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.48433578980827791</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.54845089324003204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
-      </c>
-      <c r="F45" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>256</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.26458910606828029</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.18452931097197661</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.46738488783943333</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.55179581355222462</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1">
-        <v>16</v>
-      </c>
-      <c r="F46" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G46" s="1">
-        <v>256</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.26436867629311522</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.18232241693072249</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.48075279983174718</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.56680924366067653</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>32</v>
-      </c>
-      <c r="F47" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>256</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.2625370449522868</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.1804132340787846</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.48204232967988953</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.56293095477924893</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>256</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0.26204708788758219</v>
-      </c>
-      <c r="J48" s="1">
-        <v>0.1817571428890582</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0.4694510035419126</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0.56470221845909796</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>32</v>
-      </c>
-      <c r="F49" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G49" s="1">
-        <v>256</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0.25867630587298318</v>
-      </c>
-      <c r="J49" s="1">
-        <v>0.1774233758832644</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0.47737355348001281</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0.55266862081317381</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>2</v>
-      </c>
-      <c r="E50" s="1">
-        <v>32</v>
-      </c>
-      <c r="F50" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>256</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0.25845897434936022</v>
-      </c>
-      <c r="J50" s="1">
-        <v>0.17791662344734871</v>
-      </c>
-      <c r="K50" s="1">
-        <v>0.47230281680042452</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.56646374992092574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>32</v>
-      </c>
-      <c r="F51" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>256</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.25001769054983253</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.17055036642991661</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0.46823421793517478</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.56246380831423382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>256</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0.24173413081938999</v>
-      </c>
-      <c r="J52" s="1">
-        <v>0.16332702574221711</v>
-      </c>
-      <c r="K52" s="1">
-        <v>0.46498044419695139</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.54689194847914591</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="1">
-        <v>4</v>
-      </c>
-      <c r="E53" s="1">
-        <v>8</v>
-      </c>
-      <c r="F53" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>256</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.71385332574220328</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3</v>
-      </c>
-      <c r="E54" s="1">
-        <v>8</v>
-      </c>
-      <c r="F54" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>256</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.71385332574220328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>8</v>
-      </c>
-      <c r="F55" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>256</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I55" s="1">
-        <v>0</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.71385332574220328</v>
+      <c r="G55" s="7">
+        <v>256</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="7">
+        <v>0.4478894102766226</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.41482315741135889</v>
+      </c>
+      <c r="K55" s="7">
+        <v>0.60360688391661133</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.5496522786433039</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="cased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -4892,12 +4894,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4954,2065 +4955,2059 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="7">
         <v>4</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="7">
         <v>8</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G2" s="1">
-        <v>256</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.51416765735442949</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.48481925448260382</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.57750341831856689</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0.85475494000358188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="7">
+        <v>256</v>
+      </c>
+      <c r="H2" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0.57380078499474974</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.62862167996282703</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0.60435151856007752</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0.85363225478164562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="7">
         <v>8</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G3" s="1">
-        <v>256</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.48144864897236322</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.44526748143123501</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.54642565283598865</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.85116770843051281</v>
+      <c r="G3" s="7">
+        <v>256</v>
+      </c>
+      <c r="H3" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.55321052256054093</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.61462175858050694</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0.58781419524206779</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.85073328361918965</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="7">
         <v>8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G4" s="1">
-        <v>256</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.46804205342250838</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.43757885459826867</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.53253500099139206</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.85269536147095693</v>
+      <c r="G4" s="7">
+        <v>256</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.54152116648945792</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.58274555642594861</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0.57714488467518843</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0.85171660331048515</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G5" s="7">
+        <v>256</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.53351998901524578</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.58742088789254288</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.5698245109838439</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.85091971165796665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="7">
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F6" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G5" s="1">
-        <v>256</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.46012264395378288</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.43190031321746719</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.52794197105772822</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.84794937615664734</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="G6" s="7">
+        <v>256</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.53287966354866245</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.58098394717848978</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.56925002895634036</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.84761591188003238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="7">
+        <v>16</v>
+      </c>
+      <c r="F7" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>256</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.52412745881457778</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.58809445295196772</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.55957246833013508</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.8468077464156365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
         <v>8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F8" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G8" s="7">
+        <v>256</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.51982997932849484</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.56795496058771522</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.56006591363541458</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.84333830474770077</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>4</v>
+      </c>
+      <c r="E9" s="7">
+        <v>16</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G9" s="7">
+        <v>256</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.51982718567952457</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.57943133716254669</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.55748739355686305</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.84803007705692268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3</v>
+      </c>
+      <c r="E10" s="7">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G6" s="1">
-        <v>256</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.45793164658141189</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.42467564113167861</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.52301331485656877</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.85178965699536646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1">
+      <c r="G10" s="7">
+        <v>256</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.49313780779842908</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.57160350043133046</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.53836785390116981</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.84189888952078784</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>256</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.49144000096588097</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.59084629099380936</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.53789656185641943</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.84147984076147142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>256</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.48262263278901402</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.55665141227638271</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.5246005371822029</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.83336825406327641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E13" s="7">
         <v>8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F13" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>256</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.48196693616174963</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.55398628523922322</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.52857397459516919</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.83852224707929401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="7">
+        <v>4</v>
+      </c>
+      <c r="E14" s="7">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G14" s="7">
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.48089432380067698</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.55588693790160104</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.52683581956138237</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.83805617698235146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="E15" s="7">
+        <v>16</v>
+      </c>
+      <c r="F15" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G7" s="1">
-        <v>256</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.4509637533225504</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.41449671068838279</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.52238141339357957</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.84469944335603442</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="G15" s="7">
+        <v>256</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.47420699748870798</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.54794569942479077</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.521124028090728</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.83783867760377828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
+      <c r="E16" s="7">
+        <v>16</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>256</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.47096275076803401</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.56858001283160642</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.52525034517554448</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.83468526444969915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G17" s="7">
+        <v>256</v>
+      </c>
+      <c r="H17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.46725980447995358</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.56798551148082854</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.51168217875124788</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.83336440467312956</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E18" s="7">
         <v>16</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F18" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G18" s="7">
+        <v>256</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.45393498492918088</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.51897631050883108</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.51222130555452305</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.83405669131072468</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G8" s="1">
-        <v>256</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.45017961788145922</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.42886248599099419</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0.51300642960198939</v>
-      </c>
-      <c r="L8" s="1">
-        <v>0.84771058444271985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="G19" s="7">
+        <v>256</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.45117233786943772</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.55226685955981303</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.50880952943971436</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.83253015654464368</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="7">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E20" s="7">
         <v>16</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F20" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>256</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0.44919142568139558</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.54716610323828296</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.50246062382580869</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.83209047974148642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>8</v>
+      </c>
+      <c r="F21" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>256</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0.44484107112536292</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0.48469693041831108</v>
+      </c>
+      <c r="K21" s="7">
+        <v>0.5054959729457823</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0.83133287437516834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>32</v>
+      </c>
+      <c r="F22" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="G9" s="1">
-        <v>256</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.44453579541451949</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.4175778764289953</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0.50987229378327248</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0.84510370992318939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="G22" s="7">
+        <v>256</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0.43807621775561439</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.51637756545449165</v>
+      </c>
+      <c r="K22" s="7">
+        <v>0.49055411639524182</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0.82805120556798406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="7">
+        <v>3</v>
+      </c>
+      <c r="E23" s="7">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G23" s="7">
+        <v>256</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0.42920017024755452</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.49058314407614018</v>
+      </c>
+      <c r="K23" s="7">
+        <v>0.48610898154891141</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.82637335321899086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="7">
         <v>4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E24" s="7">
+        <v>16</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G24" s="7">
+        <v>256</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0.42853800461761249</v>
+      </c>
+      <c r="J24" s="7">
+        <v>0.44163783096780063</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.48714663384735157</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.82142536442276037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
         <v>8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F25" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>256</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0.42366186608772127</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.44369543261322458</v>
+      </c>
+      <c r="K25" s="7">
+        <v>0.48271087107067168</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0.82235325810410365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7">
+        <v>16</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G26" s="7">
+        <v>256</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0.41721058168546299</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.38009645562458733</v>
+      </c>
+      <c r="K26" s="7">
+        <v>0.4821613980130009</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0.81594779849741084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3</v>
+      </c>
+      <c r="E27" s="7">
+        <v>32</v>
+      </c>
+      <c r="F27" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G27" s="7">
+        <v>256</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0.40683502031630853</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.37273548864992723</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.47292627414453869</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0.81032057230087706</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>16</v>
+      </c>
+      <c r="F28" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G28" s="7">
+        <v>256</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0.40522062677399689</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.37288825325124131</v>
+      </c>
+      <c r="K28" s="7">
+        <v>0.46868862641319747</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0.81220629171780057</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="7">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G29" s="7">
+        <v>256</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.40342438750107829</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.47274335327078287</v>
+      </c>
+      <c r="K29" s="7">
+        <v>0.46605040402057779</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.81556052696992298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="7">
+        <v>4</v>
+      </c>
+      <c r="E30" s="7">
+        <v>32</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G30" s="7">
+        <v>256</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0.40329041926700759</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0.37217587571863109</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0.46313578426877122</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0.80849471699242714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3</v>
+      </c>
+      <c r="E31" s="7">
+        <v>16</v>
+      </c>
+      <c r="F31" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G31" s="7">
+        <v>256</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0.39868985415170011</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0.45794204834719099</v>
+      </c>
+      <c r="K31" s="7">
+        <v>0.46273691110044218</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0.8128883917474522</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7">
+        <v>16</v>
+      </c>
+      <c r="F32" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G10" s="1">
-        <v>256</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.42488978008098482</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.44768530829462649</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.49524782683116592</v>
-      </c>
-      <c r="L10" s="1">
-        <v>0.84341233359202439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="G32" s="7">
+        <v>256</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0.39803072506570752</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0.44793590292662749</v>
+      </c>
+      <c r="K32" s="7">
+        <v>0.45904656676936573</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0.81170768083519762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7">
+        <v>2</v>
+      </c>
+      <c r="E33" s="7">
+        <v>16</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G33" s="7">
+        <v>256</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0.39202593975826611</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0.42633533821036929</v>
+      </c>
+      <c r="K33" s="7">
+        <v>0.4542434001115026</v>
+      </c>
+      <c r="L33" s="7">
+        <v>0.81089982600049715</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E34" s="7">
+        <v>32</v>
+      </c>
+      <c r="F34" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G34" s="7">
+        <v>256</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0.38964077614305942</v>
+      </c>
+      <c r="J34" s="7">
+        <v>0.42258318618487678</v>
+      </c>
+      <c r="K34" s="7">
+        <v>0.45679430506411101</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0.81009197116579668</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F35" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G35" s="7">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0.38714819511185822</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0.36536821682623871</v>
+      </c>
+      <c r="K35" s="7">
+        <v>0.44767473393544932</v>
+      </c>
+      <c r="L35" s="7">
+        <v>0.80056272261965333</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>16</v>
+      </c>
+      <c r="F36" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G36" s="7">
+        <v>256</v>
+      </c>
+      <c r="H36" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0.38049487991514558</v>
+      </c>
+      <c r="J36" s="7">
+        <v>0.35764806109012759</v>
+      </c>
+      <c r="K36" s="7">
+        <v>0.43676650139630552</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0.79110419348079863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7">
+        <v>32</v>
+      </c>
+      <c r="F37" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G11" s="1">
-        <v>256</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.41572383465766249</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.41955197687419638</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0.48776387143934369</v>
-      </c>
-      <c r="L11" s="1">
-        <v>0.84127872624933919</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="G37" s="7">
+        <v>256</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0.36449923466950512</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.36164284741340791</v>
+      </c>
+      <c r="K37" s="7">
+        <v>0.42107029856659473</v>
+      </c>
+      <c r="L37" s="7">
+        <v>0.79151130996768582</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="7">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G38" s="7">
+        <v>256</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0.35610299454184241</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.33695813446672812</v>
+      </c>
+      <c r="K38" s="7">
+        <v>0.40962564344328911</v>
+      </c>
+      <c r="L38" s="7">
+        <v>0.78641561024111362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7">
+        <v>16</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G39" s="7">
+        <v>256</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0.3330674521749809</v>
+      </c>
+      <c r="J39" s="7">
+        <v>0.34978255768486127</v>
+      </c>
+      <c r="K39" s="7">
+        <v>0.37273503204176922</v>
+      </c>
+      <c r="L39" s="7">
+        <v>0.76165105211170647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E12" s="1">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E40" s="7">
+        <v>16</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G40" s="7">
+        <v>256</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0.32701446500160403</v>
+      </c>
+      <c r="J40" s="7">
+        <v>0.32589267454541582</v>
+      </c>
+      <c r="K40" s="7">
+        <v>0.37598761071796449</v>
+      </c>
+      <c r="L40" s="7">
+        <v>0.76938851603281133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="7">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7">
+        <v>32</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G41" s="7">
+        <v>256</v>
+      </c>
+      <c r="H41" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0.30841177231623351</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.33717785060873601</v>
+      </c>
+      <c r="K41" s="7">
+        <v>0.35514193810925299</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0.75189320243048285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>32</v>
+      </c>
+      <c r="F42" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G12" s="1">
-        <v>256</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.40836837339895732</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0.40533332515678222</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0.4858665033122363</v>
-      </c>
-      <c r="L12" s="1">
-        <v>0.84063637991761686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="G42" s="7">
+        <v>256</v>
+      </c>
+      <c r="H42" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0.29545497711522561</v>
+      </c>
+      <c r="J42" s="7">
+        <v>0.32835234931818857</v>
+      </c>
+      <c r="K42" s="7">
+        <v>0.34554951591233418</v>
+      </c>
+      <c r="L42" s="7">
+        <v>0.74731359813223985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="7">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>16</v>
+      </c>
+      <c r="F43" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G43" s="7">
+        <v>256</v>
+      </c>
+      <c r="H43" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0.28324778336442857</v>
+      </c>
+      <c r="J43" s="7">
+        <v>0.33128144975557111</v>
+      </c>
+      <c r="K43" s="7">
+        <v>0.32271409333336609</v>
+      </c>
+      <c r="L43" s="7">
+        <v>0.74816679095202587</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="7">
+        <v>32</v>
+      </c>
+      <c r="F44" s="8">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="G44" s="7">
+        <v>256</v>
+      </c>
+      <c r="H44" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0.27492326785893012</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0.33199005364885348</v>
+      </c>
+      <c r="K44" s="7">
+        <v>0.31753621266796378</v>
+      </c>
+      <c r="L44" s="7">
+        <v>0.74387894606015414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="7">
         <v>4</v>
       </c>
-      <c r="E13" s="1">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E45" s="7">
+        <v>32</v>
+      </c>
+      <c r="F45" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G13" s="1">
-        <v>256</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.40722642953200411</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.41249467214773722</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0.478956880776439</v>
-      </c>
-      <c r="L13" s="1">
-        <v>0.83953727026774883</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="G45" s="7">
+        <v>256</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0.27219199438032798</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0.32925015701961829</v>
+      </c>
+      <c r="K45" s="7">
+        <v>0.32403908333848591</v>
+      </c>
+      <c r="L45" s="7">
+        <v>0.74018976922386182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G46" s="7">
+        <v>256</v>
+      </c>
+      <c r="H46" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0.25411147040168253</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0.31848556383512572</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0.29587629557217199</v>
+      </c>
+      <c r="L46" s="7">
+        <v>0.73306611981108627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="7">
+        <v>4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>32</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G47" s="7">
+        <v>256</v>
+      </c>
+      <c r="H47" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0.21892620372916519</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0.33042421786427018</v>
+      </c>
+      <c r="K47" s="7">
+        <v>0.26071361632941759</v>
+      </c>
+      <c r="L47" s="7">
+        <v>0.71765473527218493</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G14" s="1">
-        <v>256</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.39538864536270879</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0.42028147712325031</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.4755542582880195</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.83532326428272941</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="E48" s="7">
+        <v>16</v>
+      </c>
+      <c r="F48" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>256</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0.19944409603049551</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0.25634287057895461</v>
+      </c>
+      <c r="K48" s="7">
+        <v>0.22985737974689741</v>
+      </c>
+      <c r="L48" s="7">
+        <v>0.68735969349576465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E49" s="7">
+        <v>32</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G49" s="7">
+        <v>256</v>
+      </c>
+      <c r="H49" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0.1729238196705202</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0.26878501981337349</v>
+      </c>
+      <c r="K49" s="7">
+        <v>0.1914075008195793</v>
+      </c>
+      <c r="L49" s="7">
+        <v>0.66392289502828583</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="7">
+        <v>2</v>
+      </c>
+      <c r="E50" s="7">
         <v>16</v>
       </c>
-      <c r="F15" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G15" s="1">
-        <v>256</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.39231942951555099</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0.40507954208645669</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.46946508967640882</v>
-      </c>
-      <c r="L15" s="1">
-        <v>0.83456168174891932</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="F50" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G50" s="7">
+        <v>256</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0.16944073278371199</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0.25223070430121158</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0.19854545267348669</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0.68220233656475271</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G16" s="1">
-        <v>256</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.38886995884009312</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0.419179208643783</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.46113596553954328</v>
-      </c>
-      <c r="L16" s="1">
-        <v>0.83568118916565604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="E51" s="7">
+        <v>32</v>
+      </c>
+      <c r="F51" s="8">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G51" s="7">
+        <v>256</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0.15496938862743251</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0.23497947229059241</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0.17396862222744369</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0.65275823879792871</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="7">
         <v>3</v>
       </c>
-      <c r="E17" s="1">
-        <v>16</v>
-      </c>
-      <c r="F17" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>256</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.38744362766733709</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.40895502310183401</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0.46959059737208808</v>
-      </c>
-      <c r="L17" s="1">
-        <v>0.8347859829263925</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E52" s="7">
+        <v>32</v>
+      </c>
+      <c r="F52" s="8">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="G52" s="7">
+        <v>256</v>
+      </c>
+      <c r="H52" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0.1257587506130225</v>
+      </c>
+      <c r="J52" s="7">
+        <v>0.23564759874113089</v>
+      </c>
+      <c r="K52" s="7">
+        <v>0.14903461080652841</v>
+      </c>
+      <c r="L52" s="7">
+        <v>0.64118816803380563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
+      <c r="E53" s="7">
+        <v>32</v>
+      </c>
+      <c r="F53" s="8">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="G18" s="1">
-        <v>256</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.36919227652260772</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0.40977268534357603</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0.45422020425299381</v>
-      </c>
-      <c r="L18" s="1">
-        <v>0.83305474300041793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="1">
-        <v>16</v>
-      </c>
-      <c r="F19" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G19" s="1">
-        <v>256</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.35250842519208592</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0.3736418366396716</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0.44156767135314112</v>
-      </c>
-      <c r="L19" s="1">
-        <v>0.83033243150791425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="G53" s="7">
+        <v>256</v>
+      </c>
+      <c r="H53" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I53" s="7">
+        <v>0.1166182972142181</v>
+      </c>
+      <c r="J53" s="7">
+        <v>0.25570819515390902</v>
+      </c>
+      <c r="K53" s="7">
+        <v>0.14189497896381309</v>
+      </c>
+      <c r="L53" s="7">
+        <v>0.6370867511807109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="7">
+        <v>2</v>
+      </c>
+      <c r="E54" s="7">
+        <v>32</v>
+      </c>
+      <c r="F54" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G20" s="1">
-        <v>256</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.35081346557798632</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.35697831969268479</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0.44723623626124298</v>
-      </c>
-      <c r="L20" s="1">
-        <v>0.83162199271685278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="1">
+      <c r="G54" s="7">
+        <v>256</v>
+      </c>
+      <c r="H54" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I54" s="7">
+        <v>7.2672568059379078E-2</v>
+      </c>
+      <c r="J54" s="7">
+        <v>0.14422437540798261</v>
+      </c>
+      <c r="K54" s="7">
+        <v>0.1039730358419344</v>
+      </c>
+      <c r="L54" s="7">
+        <v>0.60076435495898584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="7">
+        <v>2</v>
+      </c>
+      <c r="E55" s="7">
         <v>32</v>
       </c>
-      <c r="F21" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G21" s="1">
-        <v>256</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.34504331947848932</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.37128062564065439</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.4328877998100818</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.82871536523929468</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>32</v>
-      </c>
-      <c r="F22" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G22" s="1">
-        <v>256</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0.33956384658076472</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.34742795283569861</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0.43757819496808731</v>
-      </c>
-      <c r="L22" s="1">
-        <v>0.8309056175750702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="F55" s="8">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="G23" s="1">
-        <v>256</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.32608020994510623</v>
-      </c>
-      <c r="J23" s="1">
-        <v>0.40304609658448109</v>
-      </c>
-      <c r="K23" s="1">
-        <v>0.41841006874490089</v>
-      </c>
-      <c r="L23" s="1">
-        <v>0.82644525297757876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G24" s="1">
-        <v>256</v>
-      </c>
-      <c r="H24" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.31576788702523162</v>
-      </c>
-      <c r="J24" s="1">
-        <v>0.25630433081744569</v>
-      </c>
-      <c r="K24" s="1">
-        <v>0.4126177987038343</v>
-      </c>
-      <c r="L24" s="1">
-        <v>0.82535371022625514</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1">
-        <v>16</v>
-      </c>
-      <c r="F25" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G25" s="1">
-        <v>256</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.30825809930503723</v>
-      </c>
-      <c r="J25" s="1">
-        <v>0.30232877192359409</v>
-      </c>
-      <c r="K25" s="1">
-        <v>0.41101831248438542</v>
-      </c>
-      <c r="L25" s="1">
-        <v>0.81986150080592202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3</v>
-      </c>
-      <c r="E26" s="1">
-        <v>16</v>
-      </c>
-      <c r="F26" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G26" s="1">
-        <v>256</v>
-      </c>
-      <c r="H26" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.30013003161256269</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.23834241762157829</v>
-      </c>
-      <c r="K26" s="1">
-        <v>0.40691509111099361</v>
-      </c>
-      <c r="L26" s="1">
-        <v>0.81729448988120112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G27" s="1">
-        <v>256</v>
-      </c>
-      <c r="H27" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.28469634068309202</v>
-      </c>
-      <c r="J27" s="1">
-        <v>0.36756266226075662</v>
-      </c>
-      <c r="K27" s="1">
-        <v>0.38435686863070379</v>
-      </c>
-      <c r="L27" s="1">
-        <v>0.81811114220853931</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>16</v>
-      </c>
-      <c r="F28" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G28" s="1">
-        <v>256</v>
-      </c>
-      <c r="H28" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.28306373516332411</v>
-      </c>
-      <c r="J28" s="1">
-        <v>0.2259476096309708</v>
-      </c>
-      <c r="K28" s="1">
-        <v>0.37998458203763869</v>
-      </c>
-      <c r="L28" s="1">
-        <v>0.81466778102799831</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3</v>
-      </c>
-      <c r="E29" s="1">
-        <v>32</v>
-      </c>
-      <c r="F29" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G29" s="1">
-        <v>256</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.28118312364926218</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.2217187121381414</v>
-      </c>
-      <c r="K29" s="1">
-        <v>0.38579620266269549</v>
-      </c>
-      <c r="L29" s="1">
-        <v>0.80866813921556924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4</v>
-      </c>
-      <c r="E30" s="1">
-        <v>16</v>
-      </c>
-      <c r="F30" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G30" s="1">
-        <v>256</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.27998418903929378</v>
-      </c>
-      <c r="J30" s="1">
-        <v>0.36801950374837739</v>
-      </c>
-      <c r="K30" s="1">
-        <v>0.38438964667211589</v>
-      </c>
-      <c r="L30" s="1">
-        <v>0.81142519513636224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1">
-        <v>32</v>
-      </c>
-      <c r="F31" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G31" s="1">
-        <v>256</v>
-      </c>
-      <c r="H31" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.27568577197744187</v>
-      </c>
-      <c r="J31" s="1">
-        <v>0.21630301306040009</v>
-      </c>
-      <c r="K31" s="1">
-        <v>0.38251276876378582</v>
-      </c>
-      <c r="L31" s="1">
-        <v>0.80556384693451133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1">
-        <v>16</v>
-      </c>
-      <c r="F32" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G32" s="1">
-        <v>256</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.27424516862730569</v>
-      </c>
-      <c r="J32" s="1">
-        <v>0.21698719847757331</v>
-      </c>
-      <c r="K32" s="1">
-        <v>0.37869600631158218</v>
-      </c>
-      <c r="L32" s="1">
-        <v>0.81469042510184408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1">
-        <v>16</v>
-      </c>
-      <c r="F33" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G33" s="1">
-        <v>256</v>
-      </c>
-      <c r="H33" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.26407050140941768</v>
-      </c>
-      <c r="J33" s="1">
-        <v>0.20819445916791501</v>
-      </c>
-      <c r="K33" s="1">
-        <v>0.36618119962598789</v>
-      </c>
-      <c r="L33" s="1">
-        <v>0.81092763628447928</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G34" s="1">
-        <v>256</v>
-      </c>
-      <c r="H34" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.26203634482481492</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.20627788003734759</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.36081390361874688</v>
-      </c>
-      <c r="L34" s="1">
-        <v>0.79983284580025071</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>32</v>
-      </c>
-      <c r="F35" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G35" s="1">
-        <v>256</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.26174519288640868</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.2056969479412879</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.36650874640110431</v>
-      </c>
-      <c r="L35" s="1">
-        <v>0.81008800572192685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-      <c r="E36" s="1">
-        <v>16</v>
-      </c>
-      <c r="F36" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G36" s="1">
-        <v>256</v>
-      </c>
-      <c r="H36" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.25589671509784317</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.19922312720560259</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.35971303083461659</v>
-      </c>
-      <c r="L36" s="1">
-        <v>0.79162438063399199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1">
-        <v>4</v>
-      </c>
-      <c r="E37" s="1">
-        <v>32</v>
-      </c>
-      <c r="F37" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G37" s="1">
-        <v>256</v>
-      </c>
-      <c r="H37" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.2422497993171969</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.18840249791895711</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.34721769821626353</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0.79195820505644188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>256</v>
-      </c>
-      <c r="H38" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0.23666504169380631</v>
-      </c>
-      <c r="J38" s="1">
-        <v>0.18300383300895809</v>
-      </c>
-      <c r="K38" s="1">
-        <v>0.34264425541460142</v>
-      </c>
-      <c r="L38" s="1">
-        <v>0.78692042168112697</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="E39" s="1">
-        <v>16</v>
-      </c>
-      <c r="F39" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G39" s="1">
-        <v>256</v>
-      </c>
-      <c r="H39" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.22534297471057721</v>
-      </c>
-      <c r="J39" s="1">
-        <v>0.17569282503442801</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.31990723566238838</v>
-      </c>
-      <c r="L39" s="1">
-        <v>0.76547668795892787</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="1">
-        <v>3</v>
-      </c>
-      <c r="E40" s="1">
-        <v>16</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G40" s="1">
-        <v>256</v>
-      </c>
-      <c r="H40" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.2089643838262229</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.1601111719190596</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.31085160618112329</v>
-      </c>
-      <c r="L40" s="1">
-        <v>0.77046988214074696</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>32</v>
-      </c>
-      <c r="F41" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G41" s="1">
-        <v>256</v>
-      </c>
-      <c r="H41" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0.20387917001327099</v>
-      </c>
-      <c r="J41" s="1">
-        <v>0.15495947803851609</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.3017732447807483</v>
-      </c>
-      <c r="L41" s="1">
-        <v>0.75362664915527433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="1">
-        <v>3</v>
-      </c>
-      <c r="E42" s="1">
-        <v>32</v>
-      </c>
-      <c r="F42" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G42" s="1">
-        <v>256</v>
-      </c>
-      <c r="H42" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0.19885307068612129</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0.15147024324850031</v>
-      </c>
-      <c r="K42" s="1">
-        <v>0.2912738068209822</v>
-      </c>
-      <c r="L42" s="1">
-        <v>0.75004477344636145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>16</v>
-      </c>
-      <c r="F43" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G43" s="1">
-        <v>256</v>
-      </c>
-      <c r="H43" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0.1757385344387003</v>
-      </c>
-      <c r="J43" s="1">
-        <v>0.13891943727132749</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.26485810533372511</v>
-      </c>
-      <c r="L43" s="1">
-        <v>0.74487669869701778</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="1">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1">
-        <v>32</v>
-      </c>
-      <c r="F44" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="G44" s="1">
-        <v>256</v>
-      </c>
-      <c r="H44" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.17488615044529759</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.13576484372114081</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.26958453799937521</v>
-      </c>
-      <c r="L44" s="1">
-        <v>0.74521877040768725</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45" s="1">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1">
-        <v>32</v>
-      </c>
-      <c r="F45" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G45" s="1">
-        <v>256</v>
-      </c>
-      <c r="H45" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0.17029985533782699</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.13027665700316479</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.24984879292919221</v>
-      </c>
-      <c r="L45" s="1">
-        <v>0.74073189660318783</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1">
-        <v>32</v>
-      </c>
-      <c r="F46" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G46" s="1">
-        <v>256</v>
-      </c>
-      <c r="H46" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0.14357447677010671</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.1135052622498036</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.2271052817435335</v>
-      </c>
-      <c r="L46" s="1">
-        <v>0.73175358397860502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" s="1">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1">
-        <v>32</v>
-      </c>
-      <c r="F47" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G47" s="1">
-        <v>256</v>
-      </c>
-      <c r="H47" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0.1166320903083912</v>
-      </c>
-      <c r="J47" s="1">
-        <v>9.9037909037794025E-2</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.18299318846365739</v>
-      </c>
-      <c r="L47" s="1">
-        <v>0.71794632583885309</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="1">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1">
-        <v>16</v>
-      </c>
-      <c r="F48" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G48" s="1">
-        <v>256</v>
-      </c>
-      <c r="H48" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I48" s="1">
-        <v>7.6049365529766266E-2</v>
-      </c>
-      <c r="J48" s="1">
-        <v>6.0665323251899439E-2</v>
-      </c>
-      <c r="K48" s="1">
-        <v>0.124694249003028</v>
-      </c>
-      <c r="L48" s="1">
-        <v>0.68679481821980781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>16</v>
-      </c>
-      <c r="F49" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G49" s="1">
-        <v>256</v>
-      </c>
-      <c r="H49" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I49" s="1">
-        <v>6.2772571223185192E-2</v>
-      </c>
-      <c r="J49" s="1">
-        <v>8.6288944903556541E-2</v>
-      </c>
-      <c r="K49" s="1">
-        <v>0.10710117680237501</v>
-      </c>
-      <c r="L49" s="1">
-        <v>0.68003856081102088</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3</v>
-      </c>
-      <c r="E50" s="1">
-        <v>32</v>
-      </c>
-      <c r="F50" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G50" s="1">
-        <v>256</v>
-      </c>
-      <c r="H50" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I50" s="1">
-        <v>5.3158622336206038E-2</v>
-      </c>
-      <c r="J50" s="1">
-        <v>4.8942677584904962E-2</v>
-      </c>
-      <c r="K50" s="1">
-        <v>9.4123349766601819E-2</v>
-      </c>
-      <c r="L50" s="1">
-        <v>0.66237836547071816</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>32</v>
-      </c>
-      <c r="F51" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G51" s="1">
-        <v>256</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I51" s="1">
-        <v>4.9270323784593131E-2</v>
-      </c>
-      <c r="J51" s="1">
-        <v>5.82703803817562E-2</v>
-      </c>
-      <c r="K51" s="1">
-        <v>8.8834327975785332E-2</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.65181183212942506</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1">
-        <v>3</v>
-      </c>
-      <c r="E52" s="1">
-        <v>32</v>
-      </c>
-      <c r="F52" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G52" s="1">
-        <v>256</v>
-      </c>
-      <c r="H52" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I52" s="1">
-        <v>2.855868071626461E-2</v>
-      </c>
-      <c r="J52" s="1">
-        <v>3.752089562218805E-2</v>
-      </c>
-      <c r="K52" s="1">
-        <v>6.5152876499971105E-2</v>
-      </c>
-      <c r="L52" s="1">
-        <v>0.64315701091519728</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>32</v>
-      </c>
-      <c r="F53" s="5">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="G53" s="1">
-        <v>256</v>
-      </c>
-      <c r="H53" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I53" s="1">
-        <v>2.2040788391241121E-2</v>
-      </c>
-      <c r="J53" s="1">
-        <v>1.4311477274440239E-2</v>
-      </c>
-      <c r="K53" s="1">
-        <v>5.1204792486258498E-2</v>
-      </c>
-      <c r="L53" s="1">
-        <v>0.63535155642628349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D54" s="1">
-        <v>2</v>
-      </c>
-      <c r="E54" s="1">
-        <v>32</v>
-      </c>
-      <c r="F54" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G54" s="1">
-        <v>256</v>
-      </c>
-      <c r="H54" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I54" s="1">
-        <v>1.120968921350852E-2</v>
-      </c>
-      <c r="J54" s="1">
-        <v>1.3062545817844469E-2</v>
-      </c>
-      <c r="K54" s="1">
-        <v>2.7149809668389081E-2</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0.60111328793108809</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D55" s="1">
-        <v>2</v>
-      </c>
-      <c r="E55" s="1">
-        <v>32</v>
-      </c>
-      <c r="F55" s="5">
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="G55" s="1">
-        <v>256</v>
-      </c>
-      <c r="H55" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I55" s="1">
-        <v>5.8149937376990504E-3</v>
-      </c>
-      <c r="J55" s="1">
-        <v>3.6129175698960589E-3</v>
-      </c>
-      <c r="K55" s="1">
-        <v>1.489117983963345E-2</v>
-      </c>
-      <c r="L55" s="1">
-        <v>0.57933854695242071</v>
+      <c r="G55" s="7">
+        <v>256</v>
+      </c>
+      <c r="H55" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="I55" s="7">
+        <v>6.513175992534459E-2</v>
+      </c>
+      <c r="J55" s="7">
+        <v>0.19734937047220061</v>
+      </c>
+      <c r="K55" s="7">
+        <v>9.1670384518919693E-2</v>
+      </c>
+      <c r="L55" s="7">
+        <v>0.57966416235146223</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="cased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>

--- a/logs/rooseBERT_large_scr_seed42.xlsx
+++ b/logs/rooseBERT_large_scr_seed42.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddore/Documents/RooseBERT/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A89FB7-7ABA-EA47-A193-FE9306CBB471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A3C7BB-AC5A-7A4F-9BDA-178C89CBBF84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="argument detection" sheetId="4" r:id="rId1"/>
@@ -645,7 +645,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2764,12 +2764,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="1" sqref="A2:XFD2 A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>61</v>
       </c>
@@ -2863,7 +2862,7 @@
         <v>0.79067032536260295</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -2901,7 +2900,7 @@
         <v>0.77891023128185022</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>0.77440219521756171</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>0.78283026264210109</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>0.78224225793806346</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>46</v>
       </c>
@@ -3319,7 +3318,7 @@
         <v>0.77812622500980011</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>55</v>
       </c>
@@ -3395,7 +3394,7 @@
         <v>0.7736181889455116</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
@@ -3509,7 +3508,7 @@
         <v>0.77577420619364956</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>0.77479419835358687</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>0.76695413563308501</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -3661,7 +3660,7 @@
         <v>0.75793806350450799</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,7 +3698,7 @@
         <v>0.75539004312034497</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>0.76538612308898468</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -3775,7 +3774,7 @@
         <v>0.75166601332810667</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>0.75754606036848293</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -4459,7 +4458,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -4497,7 +4496,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>49</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>50</v>
       </c>
@@ -4611,7 +4610,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>58</v>
       </c>
@@ -4687,7 +4686,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>63</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -4801,7 +4800,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -4839,7 +4838,7 @@
         <v>0.50019600156801258</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>59</v>
       </c>
@@ -4878,13 +4877,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="cased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
@@ -4896,9 +4889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7017,10 +7010,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
     </sheetView>
@@ -7078,7 +7070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
@@ -7116,7 +7108,7 @@
         <v>0.69814704124327553</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>54</v>
       </c>
@@ -7154,7 +7146,7 @@
         <v>0.69127316198445909</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -7268,7 +7260,7 @@
         <v>0.6963538553496712</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>68</v>
       </c>
@@ -7344,7 +7336,7 @@
         <v>0.68977884040645543</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>69</v>
       </c>
@@ -7420,7 +7412,7 @@
         <v>0.68738792588164976</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>52</v>
       </c>
@@ -7496,7 +7488,7 @@
         <v>0.69127316198445909</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -7610,7 +7602,7 @@
         <v>0.69097429766885832</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -7762,7 +7754,7 @@
         <v>0.67005379557680811</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -7876,7 +7868,7 @@
         <v>0.67901972504482966</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>60</v>
       </c>
@@ -7952,7 +7944,7 @@
         <v>0.67423789599521822</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -7990,7 +7982,7 @@
         <v>0.67931858936043032</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -8028,7 +8020,7 @@
         <v>0.66557083084279733</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>57</v>
       </c>
@@ -8066,7 +8058,7 @@
         <v>0.67812313209802755</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>67</v>
       </c>
@@ -8446,7 +8438,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
@@ -8484,7 +8476,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
@@ -8522,7 +8514,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>49</v>
       </c>
@@ -8560,7 +8552,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>50</v>
       </c>
@@ -8598,7 +8590,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>51</v>
       </c>
@@ -8636,7 +8628,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -8674,7 +8666,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -8712,7 +8704,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>62</v>
       </c>
@@ -8750,7 +8742,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>63</v>
       </c>
@@ -8788,7 +8780,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
@@ -8826,7 +8818,7 @@
         <v>0.52809324566646743</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -9054,7 +9046,7 @@
         <v>0.67513448894202033</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>48</v>
       </c>
@@ -9092,7 +9084,7 @@
         <v>0.65780035863717867</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
@@ -9131,13 +9123,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="cased"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C1:C55" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L55">
     <sortCondition descending="1" ref="I1:I55"/>
   </sortState>
